--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/142.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/142.xlsx
@@ -479,13 +479,13 @@
         <v>0.02248152043610586</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.895754811630873</v>
+        <v>-1.98524094671506</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01508000433178146</v>
+        <v>-0.001920976197387264</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1739895984997359</v>
+        <v>-0.1815401682246152</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.01818385008924926</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.773355936720289</v>
+        <v>-1.844979315806395</v>
       </c>
       <c r="F3" t="n">
-        <v>0.036445739884317</v>
+        <v>0.01988705872823376</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1515928804227484</v>
+        <v>-0.1509254963153169</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.00352794326155207</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.884462798454662</v>
+        <v>-1.924865508269769</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08140444804602855</v>
+        <v>0.05552442565360264</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1377887327289413</v>
+        <v>-0.1392226641484463</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.04796353802381279</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.989075257294548</v>
+        <v>-1.983996684599672</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1491974516004492</v>
+        <v>0.1099776171549999</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1798402275736105</v>
+        <v>-0.1817070142514731</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1119000078985194</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.972838463048771</v>
+        <v>-1.941775195689902</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2504997482282401</v>
+        <v>0.2220698148593071</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2020527854134058</v>
+        <v>-0.1870586792638955</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1845719561032143</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.865676880241939</v>
+        <v>-1.797828786018272</v>
       </c>
       <c r="F7" t="n">
-        <v>0.373473140118099</v>
+        <v>0.3351835509733385</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2306149363885281</v>
+        <v>-0.2186382248945512</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2533914619523389</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.487336987140938</v>
+        <v>-1.367149609095781</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5609750199048008</v>
+        <v>0.5634666921738198</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2274448618782285</v>
+        <v>-0.2108861807221453</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.3042481272772017</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.8813687447939172</v>
+        <v>-0.7137837159585937</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6548684085286294</v>
+        <v>0.6118189855610556</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.160176006691201</v>
+        <v>-0.1576701682500903</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.3237238118332282</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.1858152041580679</v>
+        <v>0.0165218058468929</v>
       </c>
       <c r="F10" t="n">
-        <v>0.681919501147303</v>
+        <v>0.661059025732705</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.09691775222524768</v>
+        <v>-0.08284602128081953</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.3004762116478498</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7165195894717348</v>
+        <v>0.9817669957168415</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7228959409321238</v>
+        <v>0.7022117556591115</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03860372009962024</v>
+        <v>0.06327489580688722</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.232218801783951</v>
       </c>
       <c r="E12" t="n">
-        <v>1.710509516534876</v>
+        <v>2.065949792449634</v>
       </c>
       <c r="F12" t="n">
-        <v>0.671732449394245</v>
+        <v>0.6495356317456626</v>
       </c>
       <c r="G12" t="n">
-        <v>0.164764500710113</v>
+        <v>0.1920910466750142</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.125056209797181</v>
       </c>
       <c r="E13" t="n">
-        <v>2.813220092344499</v>
+        <v>3.193824211951491</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6241703136059021</v>
+        <v>0.6051042199895869</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3972518469835885</v>
+        <v>0.4460417176865459</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.01081858858258354</v>
       </c>
       <c r="E14" t="n">
-        <v>3.894552340448616</v>
+        <v>4.281298282666923</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4536489520997921</v>
+        <v>0.427956237982801</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6185762496487994</v>
+        <v>0.676956618857842</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.1674235960185186</v>
       </c>
       <c r="E15" t="n">
-        <v>4.900456018240883</v>
+        <v>5.27667334655681</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2206500496118939</v>
+        <v>0.2053820641352772</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8238456572767434</v>
+        <v>0.8932583265069824</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.3433035327381636</v>
       </c>
       <c r="E16" t="n">
-        <v>5.814830484129515</v>
+        <v>6.250901463552021</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.03545230553845582</v>
+        <v>-0.07540878093267378</v>
       </c>
       <c r="G16" t="n">
-        <v>1.054146690990732</v>
+        <v>1.090272003843704</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.5374804731656296</v>
       </c>
       <c r="E17" t="n">
-        <v>6.722941927934491</v>
+        <v>7.176251564773482</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.4014904521969307</v>
+        <v>-0.4583817993172228</v>
       </c>
       <c r="G17" t="n">
-        <v>1.30417175831374</v>
+        <v>1.352615344810011</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.7498339009658022</v>
       </c>
       <c r="E18" t="n">
-        <v>7.355781037710797</v>
+        <v>7.8344449745557</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.6810881907709359</v>
+        <v>-0.7282473776642258</v>
       </c>
       <c r="G18" t="n">
-        <v>1.593208889558185</v>
+        <v>1.663872903989858</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.9740741043472093</v>
       </c>
       <c r="E19" t="n">
-        <v>7.927704033473644</v>
+        <v>8.398938600066007</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.9728704113629295</v>
+        <v>-1.026463401414536</v>
       </c>
       <c r="G19" t="n">
-        <v>1.809230421803734</v>
+        <v>1.88548850019251</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.19897511795861</v>
       </c>
       <c r="E20" t="n">
-        <v>8.267404118175394</v>
+        <v>8.717085640939787</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.293937257706723</v>
+        <v>-1.348518731766506</v>
       </c>
       <c r="G20" t="n">
-        <v>2.007048422911441</v>
+        <v>2.075209746940246</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.406280986965268</v>
       </c>
       <c r="E21" t="n">
-        <v>8.6734144804193</v>
+        <v>9.095366508323739</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.611684497723692</v>
+        <v>-1.632999077654786</v>
       </c>
       <c r="G21" t="n">
-        <v>2.177602838819098</v>
+        <v>2.23845127001034</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.583260573187638</v>
       </c>
       <c r="E22" t="n">
-        <v>8.911040999123822</v>
+        <v>9.319254988137549</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.938392628598227</v>
+        <v>-1.985110303127992</v>
       </c>
       <c r="G22" t="n">
-        <v>2.306719627339394</v>
+        <v>2.382976131709048</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.721476241456755</v>
       </c>
       <c r="E23" t="n">
-        <v>9.066423444721263</v>
+        <v>9.472665187776</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.11994235507773</v>
+        <v>-2.189459696579536</v>
       </c>
       <c r="G23" t="n">
-        <v>2.373695714969859</v>
+        <v>2.439562119119808</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.820976373977299</v>
       </c>
       <c r="E24" t="n">
-        <v>8.961104251295913</v>
+        <v>9.358743979852742</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.411739528851376</v>
+        <v>-2.490157161474577</v>
       </c>
       <c r="G24" t="n">
-        <v>2.458584140200727</v>
+        <v>2.523983060671649</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.881816965124068</v>
       </c>
       <c r="E25" t="n">
-        <v>8.925663636760707</v>
+        <v>9.301013680540796</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.613313139582506</v>
+        <v>-2.693355159938889</v>
       </c>
       <c r="G25" t="n">
-        <v>2.483922700015425</v>
+        <v>2.544004583894594</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.906931349537394</v>
       </c>
       <c r="E26" t="n">
-        <v>8.675515795946236</v>
+        <v>9.02152297526704</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.830516760188152</v>
+        <v>-2.934181659517015</v>
       </c>
       <c r="G26" t="n">
-        <v>2.51904693670725</v>
+        <v>2.585004633966234</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.901509158245177</v>
       </c>
       <c r="E27" t="n">
-        <v>8.564471894976716</v>
+        <v>8.885710309404731</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.976348057757539</v>
+        <v>-3.119838788893553</v>
       </c>
       <c r="G27" t="n">
-        <v>2.525250146064296</v>
+        <v>2.568889826202358</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.871995019792045</v>
       </c>
       <c r="E28" t="n">
-        <v>8.26349110663984</v>
+        <v>8.556885122812046</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.024627946265196</v>
+        <v>-3.166048055247138</v>
       </c>
       <c r="G28" t="n">
-        <v>2.566162051065144</v>
+        <v>2.595401030262425</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.825510364347034</v>
       </c>
       <c r="E29" t="n">
-        <v>7.952771861999478</v>
+        <v>8.219553936887854</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.063328354400616</v>
+        <v>-3.218783991887196</v>
       </c>
       <c r="G29" t="n">
-        <v>2.496075701650988</v>
+        <v>2.528895574349229</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.764499710446247</v>
       </c>
       <c r="E30" t="n">
-        <v>7.528663427898858</v>
+        <v>7.760415707242685</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.067632509687813</v>
+        <v>-3.208866884413441</v>
       </c>
       <c r="G30" t="n">
-        <v>2.46319916426438</v>
+        <v>2.49289618302596</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.690886460613844</v>
       </c>
       <c r="E31" t="n">
-        <v>7.043368148495914</v>
+        <v>7.22917953174634</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.967512301420118</v>
+        <v>-3.104061608231195</v>
       </c>
       <c r="G31" t="n">
-        <v>2.39331271527863</v>
+        <v>2.426272675678666</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.605258938993341</v>
       </c>
       <c r="E32" t="n">
-        <v>6.655968988342268</v>
+        <v>6.845016554906087</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.970797279326273</v>
+        <v>-3.090495924434265</v>
       </c>
       <c r="G32" t="n">
-        <v>2.274420754970304</v>
+        <v>2.312869320046315</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.514019247156889</v>
       </c>
       <c r="E33" t="n">
-        <v>6.258625175380243</v>
+        <v>6.395410585059516</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.89336891772081</v>
+        <v>-2.987357534501477</v>
       </c>
       <c r="G33" t="n">
-        <v>2.181059384809474</v>
+        <v>2.204125061013015</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.42197279460234</v>
       </c>
       <c r="E34" t="n">
-        <v>5.763662270534271</v>
+        <v>5.878173735628018</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.776570402843814</v>
+        <v>-2.859524358574602</v>
       </c>
       <c r="G34" t="n">
-        <v>2.063783942138724</v>
+        <v>2.073125745623644</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.334879340728229</v>
       </c>
       <c r="E35" t="n">
-        <v>5.272467567464694</v>
+        <v>5.374517523175102</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.772444111717324</v>
+        <v>-2.871621482531359</v>
       </c>
       <c r="G35" t="n">
-        <v>1.878274770559589</v>
+        <v>1.89132181505605</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.254044045851486</v>
       </c>
       <c r="E36" t="n">
-        <v>4.795634214857864</v>
+        <v>4.879000563598433</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.666096296796204</v>
+        <v>-2.760032970945868</v>
       </c>
       <c r="G36" t="n">
-        <v>1.759260036759801</v>
+        <v>1.792951916051243</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.180061549797854</v>
       </c>
       <c r="E37" t="n">
-        <v>4.35039300003466</v>
+        <v>4.436806649794067</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.579376500317703</v>
+        <v>-2.684344687479003</v>
       </c>
       <c r="G37" t="n">
-        <v>1.59947033762272</v>
+        <v>1.619288812379016</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.111802221332397</v>
       </c>
       <c r="E38" t="n">
-        <v>3.926506502630141</v>
+        <v>4.012323599142577</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.536728452226061</v>
+        <v>-2.631947164950025</v>
       </c>
       <c r="G38" t="n">
-        <v>1.430960572553632</v>
+        <v>1.420165949419752</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.047879690624381</v>
       </c>
       <c r="E39" t="n">
-        <v>3.482958932381457</v>
+        <v>3.537796184548451</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.40318866997491</v>
+        <v>-2.487683590425453</v>
       </c>
       <c r="G39" t="n">
-        <v>1.278109149703243</v>
+        <v>1.280218335325786</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.9881069844272357</v>
       </c>
       <c r="E40" t="n">
-        <v>3.034421721518249</v>
+        <v>3.033518234542622</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.306794164967335</v>
+        <v>-2.402139586230564</v>
       </c>
       <c r="G40" t="n">
-        <v>1.193494603799482</v>
+        <v>1.18529868623487</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.9309078793052774</v>
       </c>
       <c r="E41" t="n">
-        <v>2.651204730169898</v>
+        <v>2.625864596336078</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.215998445974226</v>
+        <v>-2.330827075920915</v>
       </c>
       <c r="G41" t="n">
-        <v>1.040241806073162</v>
+        <v>1.047057308868394</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.8774168568265249</v>
       </c>
       <c r="E42" t="n">
-        <v>2.265571619470351</v>
+        <v>2.236266531469975</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.166708037190695</v>
+        <v>-2.292218747904091</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8958428659041582</v>
+        <v>0.8830602566200754</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.8255553333405284</v>
       </c>
       <c r="E43" t="n">
-        <v>1.872247851344129</v>
+        <v>1.812257260573995</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.103530057699928</v>
+        <v>-2.217133313760684</v>
       </c>
       <c r="G43" t="n">
-        <v>0.7560683939135359</v>
+        <v>0.7430969023348969</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.7765927945193016</v>
       </c>
       <c r="E44" t="n">
-        <v>1.630143248239506</v>
+        <v>1.556880528238565</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.050119653866393</v>
+        <v>-2.159808324372473</v>
       </c>
       <c r="G44" t="n">
-        <v>0.6927833811225204</v>
+        <v>0.6780442660706607</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.7285032951073357</v>
       </c>
       <c r="E45" t="n">
-        <v>1.28375673031047</v>
+        <v>1.158829980691077</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.980918690207968</v>
+        <v>-2.072071711541613</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6104590330402518</v>
+        <v>0.5974718012703999</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.6822433298879665</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9903123455263829</v>
+        <v>0.8961734099196313</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.931645595634772</v>
+        <v>-2.020037787429654</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4691357262342696</v>
+        <v>0.4522984436937161</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.6364454456773827</v>
       </c>
       <c r="E47" t="n">
-        <v>0.7162079336857172</v>
+        <v>0.5812830146078223</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.87951014728949</v>
+        <v>-1.963884655277252</v>
       </c>
       <c r="G47" t="n">
-        <v>0.43661963922644</v>
+        <v>0.4180588057480623</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.5916715266418718</v>
       </c>
       <c r="E48" t="n">
-        <v>0.5404891610410724</v>
+        <v>0.4351369132141747</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.777937119372835</v>
+        <v>-1.869933027945936</v>
       </c>
       <c r="G48" t="n">
-        <v>0.3501241404727246</v>
+        <v>0.3300853030394455</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.5469841876749328</v>
       </c>
       <c r="E49" t="n">
-        <v>0.3902773682571051</v>
+        <v>0.2831858293011702</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.731767990506843</v>
+        <v>-1.804952009551719</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2308449714605584</v>
+        <v>0.2128759691717898</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.5018635486827401</v>
       </c>
       <c r="E50" t="n">
-        <v>0.2524609760533808</v>
+        <v>0.1808289398621078</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.664332289292958</v>
+        <v>-1.715458791381486</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2042896948650945</v>
+        <v>0.1835425488272302</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.4560107209256626</v>
       </c>
       <c r="E51" t="n">
-        <v>0.1154095571426086</v>
+        <v>0.04259385857211749</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.621373372424859</v>
+        <v>-1.668274420182255</v>
       </c>
       <c r="G51" t="n">
-        <v>0.09673067223013335</v>
+        <v>0.07958173390356235</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.4100031159871221</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.03139605826286394</v>
+        <v>-0.09631490290178951</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.555067816940067</v>
+        <v>-1.584173791521599</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05715510946327015</v>
+        <v>0.0378167105389699</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.3648064439861911</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.05213690822424311</v>
+        <v>-0.119371134990602</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.445926905088199</v>
+        <v>-1.452762083122447</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.03860349181929979</v>
+        <v>-0.06578995008240528</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.3216764100969172</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.1293441201431632</v>
+        <v>-0.1757304636478944</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.387140438945861</v>
+        <v>-1.395545701053607</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.0665407572032657</v>
+        <v>-0.09038872091009242</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.2821373773363759</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.1519800891265883</v>
+        <v>-0.1992053848229729</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.345768133352033</v>
+        <v>-1.336486929603283</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.1271310492586144</v>
+        <v>-0.1589624379486782</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.2465762159950118</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.2420486112856563</v>
+        <v>-0.2768029534839755</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.309207604212021</v>
+        <v>-1.304645309788931</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.20210630206353</v>
+        <v>-0.234639703281694</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.2160921517694946</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.246370867792748</v>
+        <v>-0.2239174850273937</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.288363655998197</v>
+        <v>-1.262257761861864</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.2417164932510618</v>
+        <v>-0.2804027352143901</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.1897243920776979</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.3562074960962313</v>
+        <v>-0.3226210760859172</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.265851247515794</v>
+        <v>-1.220529727946622</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.2747158041291308</v>
+        <v>-0.3096244002013374</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.1687351680717583</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.3823676938922487</v>
+        <v>-0.3373161186023804</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.254353037834692</v>
+        <v>-1.235552953449877</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.3298631380630216</v>
+        <v>-0.3619967384243752</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.1528255614989679</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.5102976719950834</v>
+        <v>-0.446625450500228</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.216399501772329</v>
+        <v>-1.164767739545864</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.3598812567253471</v>
+        <v>-0.3709072606700584</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.1424781345163499</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.57478208735653</v>
+        <v>-0.5194096686882931</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.244715318754968</v>
+        <v>-1.201576963707041</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.4073269150987137</v>
+        <v>-0.4164625220787429</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.1373523929605824</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.721244566593559</v>
+        <v>-0.6476229702329619</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.277882262669455</v>
+        <v>-1.228698100176612</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.4312708939719398</v>
+        <v>-0.4417239549564976</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.1368429351203175</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.8122323159194665</v>
+        <v>-0.7620289760455811</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.223687997313512</v>
+        <v>-1.166248891539007</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.4344630047499375</v>
+        <v>-0.4432696417336149</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.1399814621361575</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.8749341546260401</v>
+        <v>-0.8104568223506393</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.231403052036568</v>
+        <v>-1.177208786680624</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.525743521632407</v>
+        <v>-0.5230724111835597</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.145275717246921</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.9817085287290329</v>
+        <v>-0.9381994921780393</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.286122252769465</v>
+        <v>-1.235401847614232</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.552712765256773</v>
+        <v>-0.5463112294904432</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.1512069761544557</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.067566549738622</v>
+        <v>-1.032484024553511</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.279198142654863</v>
+        <v>-1.250805985744841</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.5710595321346539</v>
+        <v>-0.5642267151290876</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.1561717011145218</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.07067445049363</v>
+        <v>-1.025074329539988</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.284257040110723</v>
+        <v>-1.260764804725311</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.5959542185571456</v>
+        <v>-0.5890190903086947</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.1602844928875116</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.150324540088808</v>
+        <v>-1.097756236485169</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.247696510970712</v>
+        <v>-1.229682649136986</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.6271969240958429</v>
+        <v>-0.6307793916159232</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.1627757711788388</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.098110390787461</v>
+        <v>-1.026668023900305</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.28381788877588</v>
+        <v>-1.267749514576082</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.6544998597739247</v>
+        <v>-0.6345916659277135</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.1639941155502714</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.099740287587568</v>
+        <v>-1.035708402723496</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.256258387981027</v>
+        <v>-1.267807753283571</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.7384328553981625</v>
+        <v>-0.73315359526532</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.1639356271626996</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.11766521734094</v>
+        <v>-1.059863300158976</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.22199120470075</v>
+        <v>-1.248847118948382</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.6971085573875342</v>
+        <v>-0.6736965969773078</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.1633856283352371</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.133644659460385</v>
+        <v>-1.083750614343835</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.261546305219036</v>
+        <v>-1.26823037741764</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.688229515524277</v>
+        <v>-0.6674965356585044</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.1630844402776304</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.003541747960595</v>
+        <v>-0.9473996339420419</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.218601554523029</v>
+        <v>-1.219636472095284</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.7408474007302378</v>
+        <v>-0.7138057522262919</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.1645123388822144</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.856245825598837</v>
+        <v>-0.800446060739167</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.24489947899216</v>
+        <v>-1.23660990728983</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.7606060627599253</v>
+        <v>-0.735933313033537</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>0.1693486642851852</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.7692190953916827</v>
+        <v>-0.7106844723087526</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.14663503926848</v>
+        <v>-1.13453398026392</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.7401532582977441</v>
+        <v>-0.7136877007921943</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>0.1788791161967536</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.5392816600947142</v>
+        <v>-0.4955286505799191</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.135540565491992</v>
+        <v>-1.12948767496103</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.6917726325663249</v>
+        <v>-0.6558188877975746</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.1925402170303762</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.381343007444282</v>
+        <v>-0.3072932778826911</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.099558488379058</v>
+        <v>-1.091680522676948</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.6639361044061223</v>
+        <v>-0.6443458624224139</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.2099424621757374</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.2098976967139684</v>
+        <v>-0.1492900904482855</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.044394627244393</v>
+        <v>-1.034242203912004</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.6261533494184205</v>
+        <v>-0.6108412914064074</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.229873229623152</v>
       </c>
       <c r="E79" t="n">
-        <v>0.002346189640458901</v>
+        <v>0.1106827777213426</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.9179308479530504</v>
+        <v>-0.8992921005281682</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.5820052611041788</v>
+        <v>-0.5656921269310186</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.2513531504926059</v>
       </c>
       <c r="E80" t="n">
-        <v>0.1963975629908929</v>
+        <v>0.2875442882480518</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.8770551453919928</v>
+        <v>-0.8602383251000162</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.543232448089179</v>
+        <v>-0.5041385351734338</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.2733827960855362</v>
       </c>
       <c r="E81" t="n">
-        <v>0.4402272910524612</v>
+        <v>0.5785725536809425</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.8238957976083047</v>
+        <v>-0.7973515391466899</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.4385239740828933</v>
+        <v>-0.3951613213101807</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.294940529583363</v>
       </c>
       <c r="E82" t="n">
-        <v>0.6983963333090787</v>
+        <v>0.8325672972278706</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.7030961261249621</v>
+        <v>-0.6743718511803458</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.3648598792060211</v>
+        <v>-0.3390317994445982</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.315089185925396</v>
       </c>
       <c r="E83" t="n">
-        <v>0.9366571817194851</v>
+        <v>1.10175132529535</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.6664230546177773</v>
+        <v>-0.6261061288447816</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2918159478629415</v>
+        <v>-0.2505042420052836</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.3333160012627268</v>
       </c>
       <c r="E84" t="n">
-        <v>1.145900987628713</v>
+        <v>1.313589114716482</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.5721581974813217</v>
+        <v>-0.5167967969469339</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.208827363711484</v>
+        <v>-0.1537272503512321</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.3489326466202739</v>
       </c>
       <c r="E85" t="n">
-        <v>1.408930600931907</v>
+        <v>1.582149831211927</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.4963550106186019</v>
+        <v>-0.4524792276123453</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2047002855754336</v>
+        <v>-0.1609614422327301</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.3613369239179078</v>
       </c>
       <c r="E86" t="n">
-        <v>1.57607883946107</v>
+        <v>1.756459856743007</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.3941051544797879</v>
+        <v>-0.3407506283250585</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1473241405657809</v>
+        <v>-0.1097507301212122</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.3696279562484481</v>
       </c>
       <c r="E87" t="n">
-        <v>1.78471979604684</v>
+        <v>1.950741036885151</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.2689989666805667</v>
+        <v>-0.2325021853149676</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.09647702687128348</v>
+        <v>-0.05698803515609183</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.3723169850250049</v>
       </c>
       <c r="E88" t="n">
-        <v>1.993782589757119</v>
+        <v>2.160701021494571</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.1397688487835376</v>
+        <v>-0.09696969485625059</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.05690461214266289</v>
+        <v>-0.01314688057050377</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.367227453149544</v>
       </c>
       <c r="E89" t="n">
-        <v>2.122727810193192</v>
+        <v>2.258848983803276</v>
       </c>
       <c r="F89" t="n">
-        <v>0.04963602012081676</v>
+        <v>0.1038184803333503</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.01159332369777999</v>
+        <v>0.04274653842688365</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.3513792281998637</v>
       </c>
       <c r="E90" t="n">
-        <v>2.228630964712545</v>
+        <v>2.379732078300048</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1409920899211087</v>
+        <v>0.1897677944519744</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01484862352095026</v>
+        <v>0.06100043817660773</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.32076779087629</v>
       </c>
       <c r="E91" t="n">
-        <v>2.297333751319078</v>
+        <v>2.429902363772385</v>
       </c>
       <c r="F91" t="n">
-        <v>0.3094231540341314</v>
+        <v>0.362653332678278</v>
       </c>
       <c r="G91" t="n">
-        <v>0.00593810127526707</v>
+        <v>0.05216232081050437</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.2744930300780843</v>
       </c>
       <c r="E92" t="n">
-        <v>2.414532067052884</v>
+        <v>2.533852160562204</v>
       </c>
       <c r="F92" t="n">
-        <v>0.4527391690476803</v>
+        <v>0.5478114979933632</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.0001596488006517942</v>
+        <v>0.02635942535502219</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.2115611310024705</v>
       </c>
       <c r="E93" t="n">
-        <v>2.452966465956804</v>
+        <v>2.554585140427977</v>
       </c>
       <c r="F93" t="n">
-        <v>0.5732885714907361</v>
+        <v>0.6739439462596725</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.01379222841023705</v>
+        <v>0.005039336357004378</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.1334770740373766</v>
       </c>
       <c r="E94" t="n">
-        <v>2.410718218721973</v>
+        <v>2.505548148722975</v>
       </c>
       <c r="F94" t="n">
-        <v>0.6315461672083171</v>
+        <v>0.7015286313604671</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.04027982218348503</v>
+        <v>-0.04076934213020954</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.04339577208723244</v>
       </c>
       <c r="E95" t="n">
-        <v>2.299715242249606</v>
+        <v>2.396276593284039</v>
       </c>
       <c r="F95" t="n">
-        <v>0.7579493467634901</v>
+        <v>0.8637045434854408</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.03387513837891253</v>
+        <v>-0.02986611167695968</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.05339680572707286</v>
       </c>
       <c r="E96" t="n">
-        <v>2.211771645904294</v>
+        <v>2.309721281803714</v>
       </c>
       <c r="F96" t="n">
-        <v>0.7676767849331284</v>
+        <v>0.8468845751552216</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.02960010244545986</v>
+        <v>-0.03025332038079965</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1511895835239728</v>
       </c>
       <c r="E97" t="n">
-        <v>2.026268770401644</v>
+        <v>2.145091473868633</v>
       </c>
       <c r="F97" t="n">
-        <v>0.768596012099968</v>
+        <v>0.8334219896107369</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.092386151175023</v>
+        <v>-0.1036388138732016</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.2432095483579796</v>
       </c>
       <c r="E98" t="n">
-        <v>1.909758301023845</v>
+        <v>2.010679685024281</v>
       </c>
       <c r="F98" t="n">
-        <v>0.7262674898899499</v>
+        <v>0.7742797951469849</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1271452154307061</v>
+        <v>-0.1233943278646465</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.3241730640989906</v>
       </c>
       <c r="E99" t="n">
-        <v>1.751530028855094</v>
+        <v>1.907066728326421</v>
       </c>
       <c r="F99" t="n">
-        <v>0.7181424031857958</v>
+        <v>0.770218825814029</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1610070887872478</v>
+        <v>-0.1611534725655288</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.3879027301127932</v>
       </c>
       <c r="E100" t="n">
-        <v>1.551037769260297</v>
+        <v>1.705219238268185</v>
       </c>
       <c r="F100" t="n">
-        <v>0.6574372077345921</v>
+        <v>0.694969693682007</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.2165164471190378</v>
+        <v>-0.2421587926241473</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.4305017200936568</v>
       </c>
       <c r="E101" t="n">
-        <v>1.422473461451578</v>
+        <v>1.596862187938724</v>
       </c>
       <c r="F101" t="n">
-        <v>0.5933053726563169</v>
+        <v>0.6186974491211397</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.2661342518797994</v>
+        <v>-0.2931932145940795</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.4477564859618398</v>
       </c>
       <c r="E102" t="n">
-        <v>1.263735207087525</v>
+        <v>1.434083426490292</v>
       </c>
       <c r="F102" t="n">
-        <v>0.5225752494215492</v>
+        <v>0.5468261620234289</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.26739346717684</v>
+        <v>-0.2709822307734056</v>
       </c>
     </row>
   </sheetData>
